--- a/biology/Zoologie/Dauphin_d'eau_douce/Dauphin_d'eau_douce.xlsx
+++ b/biology/Zoologie/Dauphin_d'eau_douce/Dauphin_d'eau_douce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dauphin_d%27eau_douce</t>
+          <t>Dauphin_d'eau_douce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dauphins d'eau douce sont des cétacés odontocètes appartenant à trois super-familles : les Platanistoidea, les Inioidea et les Lipotoidea (éteints). On ne dénombre que six espèces modernes : le dauphin du Gange et le dauphin de l'Indus dans le genre Platanista, le boto et Inia araguaiaensis dans le genre Inia, le dauphin de la Plata dans le genre Pontoporia et le dauphin de Chine dans le genre Lipotes. Ces genres, longtemps réunis dans la famille des Platanistidés, sont aujourd'hui répartis dans quatre familles distinctes : les Platanistidae, les Iniidae, les Pontoporiidae et les Lipotidae.
 Les dauphins du genre Orcaella fréquentent occasionnellement les eaux douces des fleuves de l'Asie du Sud-Est (Mékong, Irrawaddy, etc.) mais ne sont pas à proprement parler des dauphins d'eau douce, et appartiennent à la famille des delphinidés.
-Le 10 décembre 2020, l'UICN annonce lors de la mise à jour de sa liste rouge que toutes les espèces de dauphins d'eau douce sont aujourd'hui menacées d'extinction[1].
+Le 10 décembre 2020, l'UICN annonce lors de la mise à jour de sa liste rouge que toutes les espèces de dauphins d'eau douce sont aujourd'hui menacées d'extinction.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dauphin_d%27eau_douce</t>
+          <t>Dauphin_d'eau_douce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Espèces modernes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Platanistoidea
 Platanistidae
